--- a/biology/Zoologie/Chrosomus/Chrosomus.xlsx
+++ b/biology/Zoologie/Chrosomus/Chrosomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrosomus est un genre de poissons téléostéens de la famille des Cyprinidae et de l'ordre des Cypriniformes. Les espèces que regroupe ce genre étaient autrefois incluses dans le genre Phoxinus. Le genre Chrosomus se rencontre uniquement en Amérique du Nord, au Canada et aux États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (20 novembre 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (20 novembre 2016) :
 Chrosomus cumberlandensis (W. C. Starnes &amp; L. B. Starnes, 1978)
 Chrosomus eos Cope, 1861
 Chrosomus erythrogaster (Rafinesque, 1820)
@@ -521,7 +535,7 @@
 Chrosomus oreas Cope, 1868
 Chrosomus saylori (Skelton, 2001)
 Chrosomus tennesseensis (W. C. Starnes &amp; R. E. Jenkins, 1988)
-Selon World Register of Marine Species                               (2 janvier 2019)[2] :
+Selon World Register of Marine Species                               (2 janvier 2019) :
 Chrosomus cumberlandensis (Starnes &amp; Starnes, 1978)
 Chrosomus eos Cope, 1861
 Chrosomus erythrogaster (Rafinesque, 1820)
